--- a/Excel/editing_resizing_and_moving_labels.xlsx
+++ b/Excel/editing_resizing_and_moving_labels.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="96">
   <si>
     <t>English</t>
   </si>
@@ -103,12 +103,6 @@
     <t>The following examples of cutting labels with Edit &gt; Cut will move back any labels that follow to right of the removed label(s).</t>
   </si>
   <si>
-    <t>To cut the label without moving following labels, use</t>
-  </si>
-  <si>
-    <t>Edit &gt; Remove Special &gt; Split Cut.</t>
-  </si>
-  <si>
     <t>Cutting and Pasting Region Labels</t>
   </si>
   <si>
@@ -163,145 +157,151 @@
     <t>|&lt; Label Tracks</t>
   </si>
   <si>
-    <t>लेबलेचे संपादन, आकार आणि आकार बदलणे - ऑडसिटी मॅन्युअल</t>
-  </si>
-  <si>
-    <t>लेबले संपादित करणे, आकार बदलणे आणि हलविणे</t>
-  </si>
-  <si>
-    <t>ऑडसिटी डेव्हलपमेंट मॅन्युअल वरुन</t>
-  </si>
-  <si>
-    <t>येथे जा: सुचालन, शोध</t>
-  </si>
-  <si>
     <t>लेबल बदलण्याच्या पद्धती: त्यांना हलविणे, त्यांचे आकार बदलणे, मजकूर सामग्री बदलणे.</t>
   </si>
   <si>
     <t>सामग्री</t>
   </si>
   <si>
-    <t>माउससह लेबलांची लांबी आणि स्थिती बदलणे</t>
-  </si>
-  <si>
-    <t>पॉईंट लेबल हलवित आहे</t>
-  </si>
-  <si>
-    <t>पॉईंट लेबल वाढवित आहे</t>
-  </si>
-  <si>
-    <t>प्रदेश लेबल हलविणे आणि त्याचे आकार बदलणे</t>
-  </si>
-  <si>
     <t>दोन लेबले भेटतात जंक्शन पॉईंट समायोजित करणे</t>
   </si>
   <si>
-    <t>जेव्हा निवड असेल तेव्हा लेबल हलविणे</t>
-  </si>
-  <si>
-    <t>कट, कॉपी आणि पेस्ट वापरणे</t>
-  </si>
-  <si>
     <t>संदर्भ मेनू वापरणे</t>
   </si>
   <si>
-    <t>आपण त्याचे मंडळ हँडल क्लिक करून आणि ड्रॅग करुन लेबल हलवू शकता. आपण लेबलची लांबी त्याच्या त्रिकोण हँडलवर क्लिक करुन ड्रॅग करुन बदलू शकता.</t>
-  </si>
-  <si>
-    <t>ड्रॅग करतेवेळी होल्डिंग शिफ्ट ही वागणूक उलटते म्हणून मंडळाचे हँडल ड्रॅग केल्याने लेबलची लांबी बदलते आणि त्रिकोण हँडल ड्रॅग केल्याने लेबल हलते. उदाहरणार्थ, लेबलचे वर्तुळ हँडल ड्रॅग करताना आपण लेबलचे आकार बदलू देते, त्यानंतर माउस पॉईंटरला त्याच्या त्रिकोण हँडलमध्ये न हलवता आकार बदलता लेबल हलविण्यासाठी शिफ्ट सोडा.</t>
-  </si>
-  <si>
-    <t>ज्या ठिकाणी दोन लेबले भेटतात तेथे आपण त्यांचे सामायिक केलेले मंडल हँडल क्लिक करून आणि ड्रॅग करून जंक्शन पॉईंट समायोजित करू शकता.</t>
-  </si>
-  <si>
-    <t>आपण त्याच्या मंडळाच्या हँडलवर क्लिक करुन ड्रॅग करून पॉइंट लेबल हलवू शकता:</t>
-  </si>
-  <si>
     <t>आधी</t>
   </si>
   <si>
     <t>नंतर</t>
   </si>
   <si>
-    <t>आपण बिंदू लेबल त्याच्या कोणत्याही त्रिकोण हँडलवर क्लिक करून आणि ड्रॅग करून प्रदेश लेबलमध्ये विस्तृत करू शकता:</t>
-  </si>
-  <si>
-    <t>आपण त्यापैकी कोणत्याही मंडळाच्या हँडलवर क्लिक आणि ड्रॅग करून प्रदेश लेबल हलवू शकता:</t>
-  </si>
-  <si>
-    <t>प्रदेशाच्या लेबलची लांबी त्याच्या त्रिकोणांपैकी एक हँडल क्लिक करून ड्रॅग करून बदलू शकता.</t>
-  </si>
-  <si>
-    <t>आपण जंक्शन पॉइंट समायोजित करू शकता जिथे दोन लेबले त्यांचे सामायिक केलेले मंडल हँडल क्लिक करुन आणि ड्रॅग करून भेटतात:</t>
-  </si>
-  <si>
-    <t>आपण खाली लेबलमध्ये ते निवडण्यासाठी क्लिक केल्यास काय होते ते दर्शविते, एंटर दाबा, तर लेबल हलवा.</t>
-  </si>
-  <si>
-    <t>आपण ते निवडण्यासाठी लेबलवर क्लिक केल्यास काय होते याशी तुलना करा, त्यानंतर लेबल हलवा.</t>
-  </si>
-  <si>
-    <t>संपादन&gt; कट सह लेबल तोडण्यासाठी खालील उदाहरणे काढलेल्या लेबलच्या उजवीकडील कोणतीही लेबल मागे हलवितील.</t>
-  </si>
-  <si>
-    <t>खालील लेबल हलविल्याशिवाय लेबल कापण्यासाठी, वापरा</t>
-  </si>
-  <si>
-    <t>संपादित करा&gt; स्पेशल&gt; स्प्लिट कट काढा.</t>
-  </si>
-  <si>
-    <t>प्रदेश लेबलचे कटिंग आणि पेस्टिंग</t>
-  </si>
-  <si>
-    <t>आपण संपादन&gt; कट आणि संपादन&gt; पेस्ट वापरून प्रदेश लेबले कट आणि पेस्ट करू शकता, परंतु आपण कोणताही ऑडिओ निवडत नाही याची खात्री करुन घ्यावी किंवा आपण इच्छित नसलेला ऑडिओ आपण कटिंग आणि पेस्ट कराल.</t>
-  </si>
-  <si>
-    <t>खालील प्रतिमेत, त्यावर क्लिक करुन लेबल निवडले गेले होते, त्यानंतर ऑडिओ ट्रॅकच्या ट्रॅक नियंत्रण पॅनेलमधील शिफ्ट-क्लिक करून ऑडिओ ट्रॅक निवडला गेला (हे एंटर, अप टू एन्टर द्वारे कीबोर्डसह देखील केले जाऊ शकते). त्यानंतर लेबल क्लिपबोर्डवर संपादित&gt; कट: सह कापले गेले.</t>
-  </si>
-  <si>
     <t>ऑडिओ ट्रॅकच्या वेगळ्या बिंदूवर लेबल पेस्ट करण्यासाठी, एकतर) ऑडिओ ट्रॅकवर ज्या ठिकाणी आपण लेबल सुरू करू इच्छित असाल त्या ठिकाणी क्लिक करा आणि निवडण्यासाठी लेबल ट्रॅकवर शिफ्ट-क्लिक करा; किंवा ब) ज्या ठिकाणी आपल्याला लेबल सुरू करायचे आहे अशा ठिकाणी लेबल ट्रॅकवर क्लिक करा. त्यानंतर लेबल त्या ठिकाणी संपादित करा&gt; पेस्ट वापरून पेस्ट केले जाऊ शकते.</t>
   </si>
   <si>
-    <t>पॉइंट लेबल्स कटिंग आणि पेस्टिंग</t>
-  </si>
-  <si>
-    <t>आपण पॉइंट लेबले देखील कट आणि पेस्ट करू शकता, परंतु ही प्रक्रिया अवघड आहे.</t>
-  </si>
-  <si>
-    <t>खाली दिलेल्या प्रतिमेत, बिंदू लेबल प्रदेश लेबलसह वरील उदाहरणांप्रमाणेच संपादनासाठी निवडले गेले आहे, परंतु लेबल ट्रॅकमध्ये कोणताही निवडलेला प्रदेश नाही.</t>
-  </si>
-  <si>
-    <t>पुढे काय होते "ट्रॅक्स प्राधान्यांमध्ये प्राधान्य" "प्रकल्पातील सर्व ऑडिओ निवडा, काहीही न निवडल्यास" च्या सेटिंगवर अवलंबून आहे.</t>
-  </si>
-  <si>
-    <t>ते प्राधान्य निवडलेले नसल्यास, संपादन&gt; कट अक्षम होईल आणि Ctrl + X दाबल्याने काहीही होणार नाही.</t>
-  </si>
-  <si>
-    <t>ते प्राधान्य निवडल्यास आणि आपण संपादन&gt; कट केल्यास, प्रकल्पातील सर्व ऑडिओ आणि लेबले क्लिपबोर्डवर कापली जातील.</t>
-  </si>
-  <si>
-    <t>भिन्न ठिकाणी पॉईंट लेबल कापून पेस्ट करण्यासाठी प्रथम खाली दर्शविल्यानुसार लेबलचा मजकूर निवडा. निवडलेल्या लेबल मजकूराच्या स्वरूपातील फरक लक्षात घ्या (मजकूर बॉक्सपासून स्वतंत्रपणे हायलाइट केला जाईल) विरुद्ध निवडलेले लेबल (जेथे संपूर्ण लेबल बॉक्स हायलाइट केला गेला असेल).</t>
-  </si>
-  <si>
-    <t>संपादित करा&gt; कट करा - लेबलचा मजकूर क्लिपबोर्डवर कापला आहे, लेबलशिवाय मजकूर आहे. लेबल हटविण्यासाठी हटवा दाबा.</t>
-  </si>
-  <si>
-    <t>लेबलसाठी नवीन ठिकाणी क्लिक करा आणि संपादित करा&gt; लेबल&gt; नवीन लेबलवर मजकूर पेस्ट करा:</t>
-  </si>
-  <si>
-    <t>एक सुलभ वैशिष्ट्य आहे जेथे आपण लेबलमधील मजकूराचे क्षेत्र निवडू शकता नंतर तो मजकूर कापण्यासाठी, कॉपी करण्यासाठी किंवा पेस्ट करण्यासाठी (सध्या क्लिपबोर्डमध्ये मजकूर असल्यास) उजवे क्लिक करा. हे आपल्याला दुसर्‍या लेबलवर क्लिक करण्याची परवानगी देते, उजवे क्लिक करा, नंतर तो मजकूर पेस्ट करा. म्हणून आमच्या उदाहरणात आपण "प्रश्न" निवडू शकता आणि कॉपी करू शकता आणि नंतर प्रत्येक वेळी हा शब्द टाइप न करता योग्य लेबलांमध्ये पेस्ट करा. खालील उदाहरणे याचा वापर करण्याचा एक मार्ग दर्शवितो.</t>
-  </si>
-  <si>
-    <t>लेबलमध्ये क्लिक करा, त्यानंतर लेबल मजकूर निवडा. निवडलेल्या लेबल मजकूराच्या स्वरूपात फरक लक्षात घ्या (खाली दर्शविल्यानुसार - मजकूर बॉक्सपासून स्वतंत्रपणे हायलाइट केला जाईल) विरुद्ध निवडलेले लेबल (जेथे संपूर्ण लेबल बॉक्स हायलाइट केला गेला असेल). लेबलमध्ये राइट-क्लिक करा:</t>
-  </si>
-  <si>
-    <t>आता दुसर्‍या प्रश्नाशी संबंधित ऑडिओची श्रेणी निवडा आणि संपादन&gt; लेबल&gt; निवडीवर लेबल जोडा वर क्लिक करा. नवीन लेबलमध्ये राइट क्लिक (मॅकवर कंट्रोल-क्लिक):</t>
-  </si>
-  <si>
-    <t>"प्रश्न" हा मजकूर लेबलमध्ये पेस्ट केला जाईल आणि लेबल पूर्ण करण्यासाठी आपल्याला "2" टाइप करायचे आहे. वैकल्पिकरित्या आपण ऑडिओ ट्रॅक ऐवजी लेबल ट्रॅकमधील श्रेणी निवडू शकता, नंतर त्या लेखासह लेबल तयार करण्यासाठी संपादित करा&gt; लेबल&gt; नवीन लेबलवर मजकूर पेस्ट करा.</t>
-  </si>
-  <si>
-    <t>| &lt;लेबल ट्रॅक</t>
+    <t>नावपट्टीचे संपादन, आकार बदलणे आणि हलविणे</t>
+  </si>
+  <si>
+    <t>नावपट्टीचे संपादन, आकार बदलणे आणि हलविणे - ओड्यासिटी माहितीपुस्तका</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी विकासाच्या माहितीपुस्तीकेवरून</t>
+  </si>
+  <si>
+    <t>येथे जा: निर्देशांक, शोधा</t>
+  </si>
+  <si>
+    <t>माउससह नावपट्टीची लांबी आणि स्थिती बदलणे</t>
+  </si>
+  <si>
+    <t>पॉईंट नवपट्टी हलवित आहे</t>
+  </si>
+  <si>
+    <t>पॉईंट नावपट्टी वाढवित आहे</t>
+  </si>
+  <si>
+    <t>प्रदेश नावपट्टी हलविणे आणि त्याचे आकार बदलणे</t>
+  </si>
+  <si>
+    <t>जेव्हा निवड असेल तेव्हा नावपट्टी हलविणे</t>
+  </si>
+  <si>
+    <t>कापून घ्या, प्रत करा आणि पेस्ट वापरणे</t>
+  </si>
+  <si>
+    <t>आपण क्लिक करून आणि त्याच्या मंडळ हँडल ओढून नावपट्टी हलवू शकता. आपण नावपट्टीची लांबी त्याच्या त्रिकोण हँडलवर क्लिक करुन ड्रॅग करुन बदलू शकता.</t>
+  </si>
+  <si>
+    <t>ड्रॅग करताना शिफ्ट होल्डिंग ही वागणूक उलटते म्हणून वर्तुळाचे हँडल ड्रॅग केल्याने नावपट्टीची लांबी बदलते आणि त्रिकोण हँडल ड्रॅग केल्याने नावपट्टी हलते. उदाहरणार्थ, हे आपल्याला नावपट्टीचे वर्तुळाचे हँडल ड्रॅग करताना शिफ्ट होल्ड करून आकार बदलू देते, त्यानंतर माउस पॉईंटरला त्याच्या त्रिकोण हँडलमध्ये न हलवता आकार बदलता नावपट्टी हलविण्यासाठी शिफ्ट सोडा.</t>
+  </si>
+  <si>
+    <t>ज्या ठिकाणी दोन नावपट्टी भेटतात तेथे आपण त्यांचे सामायिक केलेले वर्तुळाचे हँडल क्लिक करून आणि ड्रॅग करून जंक्शन पॉईंट समायोजित करू शकता.</t>
+  </si>
+  <si>
+    <t>पॉईंट नावपट्टी हलवित आहे</t>
+  </si>
+  <si>
+    <t>आपण त्याच्या वर्तुळाच्या हँडलवर क्लिक करुन ड्रॅग करून पॉइंट नावपट्टी हलवू शकता:</t>
+  </si>
+  <si>
+    <t>आपण बिंदू नावपट्टी त्याच्या कोणत्याही त्रिकोण हँडलवर क्लिक करून आणि ड्रॅग करून प्रदेश नावपट्टीमध्ये विस्तृत करू शकता:</t>
+  </si>
+  <si>
+    <t>आपण त्यापैकी कोणत्याही वर्तुळाच्या हँडलवर क्लिक आणि ड्रॅग करून प्रदेश नावपट्टी हलवू शकता:</t>
+  </si>
+  <si>
+    <t>प्रदेशाच्या नावपट्टीची लांबी त्याच्या त्रिकोणांपैकी एक हँडल क्लिक करून ड्रॅग करून बदलू शकता.</t>
+  </si>
+  <si>
+    <t>जिथे दोन नावपट्टी भेटतात तिथे जंक्शन पॉईंट समायोजित करणे</t>
+  </si>
+  <si>
+    <t>आपण जंक्शन पॉइंट समायोजित करू शकता जिथे दोन नावपट्टी त्यांचे सामायिक केलेले वर्तुळ हँडल क्लिक करुन आणि ड्रॅग करून भेटतात:</t>
+  </si>
+  <si>
+    <t>जर आपण नावपट्टीमध्ये ते निवडण्यासाठी क्लिक केले तर एंटर दाबा, तर नावपट्टी हलविते म्हणजे काय होते ते खाली दिलेली उदाहरणे दर्शविते.</t>
+  </si>
+  <si>
+    <t>आपण ते निवडण्यासाठी नावपट्टीवर क्लिक केल्यास काय होते याशी तुलना करा, त्यानंतर नावपट्टी हलवा.</t>
+  </si>
+  <si>
+    <t>संपादन&gt; कापून घ्या सह नावपट्टी तोडण्यासाठी खालील उदाहरणे काढलेल्या नावपट्टीच्या उजवीकडील कोणतीही नावपट्टी मागे हलवितील.</t>
+  </si>
+  <si>
+    <t>To cut the label without moving following labels, use Edit &gt; Remove Special &gt; Split Cut.</t>
+  </si>
+  <si>
+    <t>खालील नावपट्टी न हलवता नावपट्टी कापण्यासाठी, संपादन&gt; विशेष काढा&gt; विभाजीत कापून घ्या वापरा.</t>
+  </si>
+  <si>
+    <t>प्रदेश नावपट्टीचे कापून घेणे आणि पेस्टिंग</t>
+  </si>
+  <si>
+    <t>आपण संपादन&gt; कापून घ्या आणि संपादन&gt; पेस्ट वापरून प्रदेश नावपट्टी कापून घ्या आणि पेस्ट करू शकता, परंतु आपण कोणताही ध्वनी निवडत नाही याची खात्री करुन घ्यावी किंवा आपण इच्छित नसलेला ध्वनी आपण कापून घ्या आणि पेस्ट कराल.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">खालील प्रतिमेत, त्यावर क्लिक करुन नावपट्टी निवडले गेले होते, त्यानंतर ध्वनीपट्टाच्या गीतपट्टा नियंत्रण पॅनेलमधील शिफ्ट-क्लिक करून ध्वनिपट्टा निवडला गेला (हे एंटर, वर नंतर एन्टर द्वारे कीबोर्डसह देखील केले जाऊ शकते). त्यानंतर नावपट्टी क्लिपबोर्डवर संपादित&gt; कापून घ्या सह कापले गेले : </t>
+  </si>
+  <si>
+    <t>पॉइंट नावपट्टी कापून घेणे  आणि पेस्टिंग</t>
+  </si>
+  <si>
+    <t>आपण पॉइंट नावपट्टी देखील कापून घ्या आणि पेस्ट करू शकता, परंतु ही प्रक्रिया अवघड आहे.</t>
+  </si>
+  <si>
+    <t>खाली दिलेल्या प्रतिमेत, बिंदू लेबल प्रदेश नावपट्टीसह वरील उदाहरणांप्रमाणेच संपादनासाठी निवडले गेले आहे, परंतु नावपट्टीचा पट्टामध्ये कोणताही निवडलेला प्रदेश नाही.</t>
+  </si>
+  <si>
+    <t>पुढे काय होते "गीतपट्टा प्राधान्यांमध्ये प्राधान्य" "प्रकल्पातील सर्व ध्वनी निवडा, काहीही न निवडल्यास" च्या सेटिंगवर अवलंबून आहे.</t>
+  </si>
+  <si>
+    <t>ते प्राधान्य निवडलेले नसल्यास, संपादन&gt; कापून घ्या अक्षम होईल आणि Ctrl + X दाबल्याने काहीही होणार नाही.</t>
+  </si>
+  <si>
+    <t>ते प्राधान्य निवडल्यास आणि आपण संपादन&gt; कापून घ्या केल्यास, प्रकल्पातील सर्व ध्वनी आणि नावपट्टी क्लिपबोर्डवर कापली जातील.</t>
+  </si>
+  <si>
+    <t>भिन्न ठिकाणी पॉईंट नवपट्टी कापून पेस्ट करण्यासाठी प्रथम खाली दर्शविल्यानुसार नवपट्टीचा मजकूर निवडा. निवडलेल्या नवपट्टी मजकूराच्या स्वरूपातील फरक लक्षात घ्या (मजकूर डब्यापासून स्वतंत्रपणे हायलाइट केला जाईल) विरुद्ध निवडलेले नवपट्टी (जेथे संपूर्ण नवपट्टीचा डब्बा हायलाइट केला गेला असेल).</t>
+  </si>
+  <si>
+    <t>संपादन &gt; कापून घ्या करा - नावपट्टीचा मजकूर क्लिपबोर्डवर कापला आहे, नावपट्टीशिवाय मजकूर आहे. नावपट्टी हटविण्यासाठी हटवा दाबा.</t>
+  </si>
+  <si>
+    <t>नावपट्टीसाठी नवीन ठिकाणी क्लिक करा आणि संपादन&gt; नावपट्टी&gt; नवीन नावपट्टीवर मजकूर पेस्ट करा:</t>
+  </si>
+  <si>
+    <t>एक सुलभ वैशिष्ट्य आहे जेथे आपण नावपट्टीमधील मजकूराचे क्षेत्र निवडू शकता नंतर तो मजकूर कापण्यासाठी, प्रत करण्यासाठी किंवा पेस्ट करण्यासाठी (सध्या क्लिपबोर्डमध्ये मजकूर असल्यास) उजवे क्लिक करा. हे आपल्याला दुसर्‍या नावपट्टीवर क्लिक करण्याची परवानगी देते, उजवे क्लिक करा, नंतर तो मजकूर पेस्ट करा. म्हणून आमच्या उदाहरणात आपण "प्रश्न" निवडू शकता आणि प्रत करू शकता आणि नंतर प्रत्येक वेळी हा शब्द टाइप न करता योग्य नावपट्टीमध्ये पेस्ट करा. खालील उदाहरणे याचा वापर करण्याचा एक मार्ग दर्शवितो.</t>
+  </si>
+  <si>
+    <t>नावपट्टीमध्ये क्लिक करा, त्यानंतर नावपट्टीचा मजकूर निवडा. निवडलेल्या नावपट्टी मजकूराच्या स्वरूपात फरक लक्षात घ्या (खाली दर्शविल्यानुसार - मजकूर बॉक्सपासून स्वतंत्रपणे हायलाइट केला जाईल) विरुद्ध निवडलेले नावपट्टी (जेथे संपूर्ण नावपट्टी डब्बा हायलाइट केला गेला असेल). नावपट्टीमध्ये उजवे-क्लिक करा:</t>
+  </si>
+  <si>
+    <t>आता दुसर्‍या प्रश्नाशी संबंधित ध्वनीची श्रेणी निवडा आणि संपादन&gt; नावपट्टी&gt; निवडीवर नावपट्टी जोडा वर क्लिक करा. नवीन नावपट्टीमध्ये उजवे क्लिक (मॅकवर कंट्रोल-क्लिक):</t>
+  </si>
+  <si>
+    <t>प्रश्न हा मजकूर नावपट्टीमध्ये पेस्ट केला जाईल आणि नावपट्टी पूर्ण करण्यासाठी आपल्याला "२" टाइप करायचे आहे. वैकल्पिकरित्या आपण गीतपट्टा ऐवजी नावपट्टीच्या पट्ट्यामधील श्रेणी निवडू शकता, नंतर त्या लेखासह नावपट्टी तयार करण्यासाठी संपादान &gt; नावपट्टी&gt; नवीन नावपट्टीवर मजकूर पेस्ट करा.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">| &lt;नावपट्टीचा पट्टा </t>
   </si>
 </sst>
 </file>
@@ -360,11 +360,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -659,11 +660,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="45.140625" customWidth="1"/>
+    <col min="3" max="3" width="67.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
@@ -681,7 +688,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -692,7 +699,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -703,7 +710,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -714,7 +721,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -725,7 +732,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -736,7 +743,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -747,7 +754,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -758,7 +765,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -769,7 +776,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -780,7 +787,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -791,7 +798,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -802,7 +809,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -813,7 +820,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -824,7 +831,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -835,7 +842,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -846,7 +853,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -856,8 +863,8 @@
       <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
-        <v>64</v>
+      <c r="C18" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -868,7 +875,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -879,7 +886,7 @@
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -890,7 +897,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -901,7 +908,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -912,7 +919,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -923,7 +930,7 @@
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -945,7 +952,7 @@
         <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -956,7 +963,7 @@
         <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -967,7 +974,7 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -989,7 +996,7 @@
         <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1000,7 +1007,7 @@
         <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1022,7 +1029,7 @@
         <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1033,7 +1040,7 @@
         <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1044,7 +1051,7 @@
         <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1055,7 +1062,7 @@
         <v>25</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1066,7 +1073,7 @@
         <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1077,7 +1084,7 @@
         <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1088,7 +1095,7 @@
         <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1099,7 +1106,7 @@
         <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1110,7 +1117,7 @@
         <v>20</v>
       </c>
       <c r="C41" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1121,7 +1128,7 @@
         <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1132,7 +1139,7 @@
         <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1143,7 +1150,7 @@
         <v>20</v>
       </c>
       <c r="C44" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1154,7 +1161,7 @@
         <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1165,7 +1172,7 @@
         <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1176,7 +1183,7 @@
         <v>28</v>
       </c>
       <c r="C47" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1184,10 +1191,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="C48" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1195,10 +1202,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C49" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1206,10 +1213,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C50" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1217,10 +1224,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>32</v>
-      </c>
-      <c r="C51" t="s">
-        <v>79</v>
+        <v>31</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1228,10 +1235,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C52" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1239,10 +1246,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1250,10 +1257,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C54" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1261,10 +1268,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C55" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1272,10 +1279,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C56" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1283,10 +1290,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C57" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1294,10 +1301,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C58" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1305,10 +1312,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>40</v>
-      </c>
-      <c r="C59" t="s">
-        <v>87</v>
+        <v>39</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1316,10 +1323,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C60" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1327,10 +1334,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C61" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1338,10 +1345,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C62" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1349,10 +1356,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
-      </c>
-      <c r="C63" t="s">
-        <v>62</v>
+        <v>42</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1360,10 +1367,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>44</v>
-      </c>
-      <c r="C64" t="s">
-        <v>91</v>
+        <v>43</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1371,10 +1378,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C65" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1382,10 +1389,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>46</v>
-      </c>
-      <c r="C66" t="s">
-        <v>93</v>
+        <v>45</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1393,24 +1400,14 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C67" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>48</v>
-      </c>
-      <c r="C68" t="s">
         <v>95</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>